--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -5,33 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrizz\Desktop\Ecole\Peip2\Arduino\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomwa\Documents\Cours\Arduino\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7D440F-F81E-49AB-850A-C70423371678}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC3E2E-950A-4EB7-AFFE-7CD1AB9C8761}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{26780CF7-6289-44F1-873A-22E8A09AA71F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{26780CF7-6289-44F1-873A-22E8A09AA71F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Semaine 1</t>
   </si>
@@ -60,7 +54,10 @@
     <t>bibliographie(etat de l'art)/détermination projet</t>
   </si>
   <si>
-    <t>moteur axe xy</t>
+    <t>Code Arduino</t>
+  </si>
+  <si>
+    <t>Etude/Construction Moteurs Axe x/y</t>
   </si>
 </sst>
 </file>
@@ -83,7 +80,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +99,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -115,10 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B30B16A-72F1-4AD4-9BC5-A741146235C8}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,10 +490,18 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
